--- a/meetrapporten/working/Results.xlsx
+++ b/meetrapporten/working/Results.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents-(D)\HBO-ICT\jaar2\Blok C\vision\HU-TI-1617C-Vision\meetrapporten\working\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents-(D)\HBO-ICT\git\HBO-ICT\Jaar2\HU-TI-1617C-Vision\meetrapporten\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5664"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
   <si>
     <t>Single Color Channel</t>
   </si>
@@ -43,11 +43,20 @@
   <si>
     <t>Luminace</t>
   </si>
+  <si>
+    <t>Gemiddelden</t>
+  </si>
+  <si>
+    <t>Gemiddelde bij single color</t>
+  </si>
+  <si>
+    <t>Gemiddelde bij Luminace</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,8 +188,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -189,17 +199,15 @@
             <c:v>Female-1</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Blad1!$A$3:$A$52</c:f>
@@ -359,7 +367,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-583B-4CDD-9A7E-5FB36C34FB11}"/>
@@ -373,17 +380,15 @@
             <c:v>Child-1</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Blad1!$C$3:$C$52</c:f>
@@ -543,7 +548,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-583B-4CDD-9A7E-5FB36C34FB11}"/>
@@ -557,17 +561,15 @@
             <c:v>Male-2</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Blad1!$E$3:$E$52</c:f>
@@ -727,7 +729,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-583B-4CDD-9A7E-5FB36C34FB11}"/>
@@ -741,17 +742,15 @@
             <c:v>Male-3</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Blad1!$G$3:$G$52</c:f>
@@ -911,7 +910,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-583B-4CDD-9A7E-5FB36C34FB11}"/>
@@ -926,10 +924,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1040157312"/>
         <c:axId val="1032217888"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="1040157312"/>
         <c:scaling>
@@ -3544,7 +3542,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3582,7 +3580,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3688,7 +3686,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3837,11 +3835,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5190,7 +5188,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>354</v>
       </c>
@@ -5218,7 +5216,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>354</v>
       </c>
@@ -5246,7 +5244,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>374</v>
       </c>
@@ -5274,7 +5272,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>356</v>
       </c>
@@ -5302,18 +5300,151 @@
         <v>354</v>
       </c>
     </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="2"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <f>SUM(A3:A52)/50</f>
+        <v>361.64</v>
+      </c>
+      <c r="C58">
+        <f>SUM(C3:C52)/50</f>
+        <v>353.16</v>
+      </c>
+      <c r="E58">
+        <f>SUM(E3:E52)/50</f>
+        <v>356.56</v>
+      </c>
+      <c r="G58">
+        <f>SUM(G3:G52)/50</f>
+        <v>363.86</v>
+      </c>
+      <c r="I58">
+        <f>SUM(I3:I52)/50</f>
+        <v>363.3</v>
+      </c>
+      <c r="K58">
+        <f>SUM(K3:K52)/50</f>
+        <v>358.6</v>
+      </c>
+      <c r="M58">
+        <f>SUM(M3:M52)/50</f>
+        <v>360.36</v>
+      </c>
+      <c r="O58">
+        <f>SUM(O3:O52)/50</f>
+        <v>366.62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <f>SUM(A58,C58,E58,G58)/4</f>
+        <v>358.80499999999995</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I63">
+        <f>SUM(I58,K58,M58,O58)/4</f>
+        <v>362.22</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="23">
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="I62:K62"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="I56:P56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:P1"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/meetrapporten/working/Results.xlsx
+++ b/meetrapporten/working/Results.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents-(D)\HBO-ICT\git\HBO-ICT\Jaar2\HU-TI-1617C-Vision\meetrapporten\working\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koend\Documents\GitHub\HU-TI-1617C-Vision\meetrapporten\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C493B5-0359-4F10-AA35-C55148F5A5C5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17258" windowHeight="5663" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
   <si>
     <t>Single Color Channel</t>
   </si>
@@ -51,6 +52,12 @@
   </si>
   <si>
     <t>Gemiddelde bij Luminace</t>
+  </si>
+  <si>
+    <t>Standaard</t>
+  </si>
+  <si>
+    <t>Gemiddelde bij Standaard</t>
   </si>
 </sst>
 </file>
@@ -96,7 +103,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -114,7 +121,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1228,7 +1235,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3464,16 +3471,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>607521</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>174133</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>2078</xdr:rowOff>
+      <xdr:rowOff>16365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>386541</xdr:colOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>600853</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>24938</xdr:rowOff>
+      <xdr:rowOff>39225</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3500,16 +3507,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>607695</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>151447</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3540,7 +3547,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3836,15 +3843,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P63"/>
+  <dimension ref="A1:X63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3865,8 +3872,18 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
+      <c r="Q1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3899,8 +3916,24 @@
         <v>4</v>
       </c>
       <c r="P2" s="2"/>
+      <c r="Q2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>356</v>
       </c>
@@ -3927,8 +3960,20 @@
       <c r="O3">
         <v>382</v>
       </c>
+      <c r="Q3">
+        <v>356</v>
+      </c>
+      <c r="S3">
+        <v>351</v>
+      </c>
+      <c r="U3">
+        <v>434</v>
+      </c>
+      <c r="W3">
+        <v>431</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>357</v>
       </c>
@@ -3955,8 +4000,20 @@
       <c r="O4">
         <v>374</v>
       </c>
+      <c r="Q4">
+        <v>353</v>
+      </c>
+      <c r="S4">
+        <v>361</v>
+      </c>
+      <c r="U4">
+        <v>373</v>
+      </c>
+      <c r="W4">
+        <v>376</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>370</v>
       </c>
@@ -3983,8 +4040,20 @@
       <c r="O5">
         <v>376</v>
       </c>
+      <c r="Q5">
+        <v>365</v>
+      </c>
+      <c r="S5">
+        <v>358</v>
+      </c>
+      <c r="U5">
+        <v>359</v>
+      </c>
+      <c r="W5">
+        <v>378</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>368</v>
       </c>
@@ -4011,8 +4080,20 @@
       <c r="O6">
         <v>374</v>
       </c>
+      <c r="Q6">
+        <v>360</v>
+      </c>
+      <c r="S6">
+        <v>351</v>
+      </c>
+      <c r="U6">
+        <v>363</v>
+      </c>
+      <c r="W6">
+        <v>377</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>364</v>
       </c>
@@ -4039,8 +4120,20 @@
       <c r="O7">
         <v>376</v>
       </c>
+      <c r="Q7">
+        <v>355</v>
+      </c>
+      <c r="S7">
+        <v>357</v>
+      </c>
+      <c r="U7">
+        <v>361</v>
+      </c>
+      <c r="W7">
+        <v>374</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>369</v>
       </c>
@@ -4067,8 +4160,20 @@
       <c r="O8">
         <v>384</v>
       </c>
+      <c r="Q8">
+        <v>358</v>
+      </c>
+      <c r="S8">
+        <v>359</v>
+      </c>
+      <c r="U8">
+        <v>387</v>
+      </c>
+      <c r="W8">
+        <v>382</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>373</v>
       </c>
@@ -4095,8 +4200,20 @@
       <c r="O9">
         <v>384</v>
       </c>
+      <c r="Q9">
+        <v>361</v>
+      </c>
+      <c r="S9">
+        <v>355</v>
+      </c>
+      <c r="U9">
+        <v>358</v>
+      </c>
+      <c r="W9">
+        <v>385</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>365</v>
       </c>
@@ -4123,8 +4240,20 @@
       <c r="O10">
         <v>381</v>
       </c>
+      <c r="Q10">
+        <v>359</v>
+      </c>
+      <c r="S10">
+        <v>378</v>
+      </c>
+      <c r="U10">
+        <v>436</v>
+      </c>
+      <c r="W10">
+        <v>401</v>
+      </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>357</v>
       </c>
@@ -4151,8 +4280,20 @@
       <c r="O11">
         <v>374</v>
       </c>
+      <c r="Q11">
+        <v>365</v>
+      </c>
+      <c r="S11">
+        <v>379</v>
+      </c>
+      <c r="U11">
+        <v>354</v>
+      </c>
+      <c r="W11">
+        <v>381</v>
+      </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>363</v>
       </c>
@@ -4179,8 +4320,20 @@
       <c r="O12">
         <v>380</v>
       </c>
+      <c r="Q12">
+        <v>361</v>
+      </c>
+      <c r="S12">
+        <v>349</v>
+      </c>
+      <c r="U12">
+        <v>354</v>
+      </c>
+      <c r="W12">
+        <v>377</v>
+      </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>361</v>
       </c>
@@ -4207,8 +4360,20 @@
       <c r="O13">
         <v>374</v>
       </c>
+      <c r="Q13">
+        <v>355</v>
+      </c>
+      <c r="S13">
+        <v>357</v>
+      </c>
+      <c r="U13">
+        <v>357</v>
+      </c>
+      <c r="W13">
+        <v>378</v>
+      </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>358</v>
       </c>
@@ -4235,8 +4400,20 @@
       <c r="O14">
         <v>378</v>
       </c>
+      <c r="Q14">
+        <v>368</v>
+      </c>
+      <c r="S14">
+        <v>357</v>
+      </c>
+      <c r="U14">
+        <v>358</v>
+      </c>
+      <c r="W14">
+        <v>372</v>
+      </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>363</v>
       </c>
@@ -4263,8 +4440,20 @@
       <c r="O15">
         <v>380</v>
       </c>
+      <c r="Q15">
+        <v>363</v>
+      </c>
+      <c r="S15">
+        <v>351</v>
+      </c>
+      <c r="U15">
+        <v>361</v>
+      </c>
+      <c r="W15">
+        <v>388</v>
+      </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>362</v>
       </c>
@@ -4291,8 +4480,20 @@
       <c r="O16">
         <v>379</v>
       </c>
+      <c r="Q16">
+        <v>359</v>
+      </c>
+      <c r="S16">
+        <v>360</v>
+      </c>
+      <c r="U16">
+        <v>351</v>
+      </c>
+      <c r="W16">
+        <v>385</v>
+      </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>367</v>
       </c>
@@ -4319,8 +4520,20 @@
       <c r="O17">
         <v>377</v>
       </c>
+      <c r="Q17">
+        <v>455</v>
+      </c>
+      <c r="S17">
+        <v>355</v>
+      </c>
+      <c r="U17">
+        <v>379</v>
+      </c>
+      <c r="W17">
+        <v>375</v>
+      </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>358</v>
       </c>
@@ -4347,8 +4560,20 @@
       <c r="O18">
         <v>379</v>
       </c>
+      <c r="Q18">
+        <v>358</v>
+      </c>
+      <c r="S18">
+        <v>366</v>
+      </c>
+      <c r="U18">
+        <v>363</v>
+      </c>
+      <c r="W18">
+        <v>377</v>
+      </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>357</v>
       </c>
@@ -4375,8 +4600,20 @@
       <c r="O19">
         <v>384</v>
       </c>
+      <c r="Q19">
+        <v>361</v>
+      </c>
+      <c r="S19">
+        <v>352</v>
+      </c>
+      <c r="U19">
+        <v>363</v>
+      </c>
+      <c r="W19">
+        <v>382</v>
+      </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>362</v>
       </c>
@@ -4403,8 +4640,20 @@
       <c r="O20">
         <v>376</v>
       </c>
+      <c r="Q20">
+        <v>358</v>
+      </c>
+      <c r="S20">
+        <v>356</v>
+      </c>
+      <c r="U20">
+        <v>379</v>
+      </c>
+      <c r="W20">
+        <v>379</v>
+      </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>357</v>
       </c>
@@ -4431,8 +4680,20 @@
       <c r="O21">
         <v>384</v>
       </c>
+      <c r="Q21">
+        <v>352</v>
+      </c>
+      <c r="S21">
+        <v>378</v>
+      </c>
+      <c r="U21">
+        <v>355</v>
+      </c>
+      <c r="W21">
+        <v>390</v>
+      </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>358</v>
       </c>
@@ -4459,8 +4720,20 @@
       <c r="O22">
         <v>373</v>
       </c>
+      <c r="Q22">
+        <v>354</v>
+      </c>
+      <c r="S22">
+        <v>348</v>
+      </c>
+      <c r="U22">
+        <v>361</v>
+      </c>
+      <c r="W22">
+        <v>367</v>
+      </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>362</v>
       </c>
@@ -4487,8 +4760,20 @@
       <c r="O23">
         <v>357</v>
       </c>
+      <c r="Q23">
+        <v>355</v>
+      </c>
+      <c r="S23">
+        <v>352</v>
+      </c>
+      <c r="U23">
+        <v>351</v>
+      </c>
+      <c r="W23">
+        <v>373</v>
+      </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>357</v>
       </c>
@@ -4515,8 +4800,20 @@
       <c r="O24">
         <v>362</v>
       </c>
+      <c r="Q24">
+        <v>382</v>
+      </c>
+      <c r="S24">
+        <v>355</v>
+      </c>
+      <c r="U24">
+        <v>364</v>
+      </c>
+      <c r="W24">
+        <v>387</v>
+      </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>358</v>
       </c>
@@ -4543,8 +4840,20 @@
       <c r="O25">
         <v>356</v>
       </c>
+      <c r="Q25">
+        <v>357</v>
+      </c>
+      <c r="S25">
+        <v>434</v>
+      </c>
+      <c r="U25">
+        <v>363</v>
+      </c>
+      <c r="W25">
+        <v>353</v>
+      </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>362</v>
       </c>
@@ -4571,8 +4880,20 @@
       <c r="O26">
         <v>360</v>
       </c>
+      <c r="Q26">
+        <v>356</v>
+      </c>
+      <c r="S26">
+        <v>356</v>
+      </c>
+      <c r="U26">
+        <v>355</v>
+      </c>
+      <c r="W26">
+        <v>359</v>
+      </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>357</v>
       </c>
@@ -4599,8 +4920,20 @@
       <c r="O27">
         <v>358</v>
       </c>
+      <c r="Q27">
+        <v>379</v>
+      </c>
+      <c r="S27">
+        <v>362</v>
+      </c>
+      <c r="U27">
+        <v>385</v>
+      </c>
+      <c r="W27">
+        <v>372</v>
+      </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>361</v>
       </c>
@@ -4627,8 +4960,20 @@
       <c r="O28">
         <v>356</v>
       </c>
+      <c r="Q28">
+        <v>360</v>
+      </c>
+      <c r="S28">
+        <v>397</v>
+      </c>
+      <c r="U28">
+        <v>359</v>
+      </c>
+      <c r="W28">
+        <v>360</v>
+      </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>362</v>
       </c>
@@ -4655,8 +5000,20 @@
       <c r="O29">
         <v>357</v>
       </c>
+      <c r="Q29">
+        <v>365</v>
+      </c>
+      <c r="S29">
+        <v>352</v>
+      </c>
+      <c r="U29">
+        <v>386</v>
+      </c>
+      <c r="W29">
+        <v>359</v>
+      </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>362</v>
       </c>
@@ -4683,8 +5040,20 @@
       <c r="O30">
         <v>359</v>
       </c>
+      <c r="Q30">
+        <v>363</v>
+      </c>
+      <c r="S30">
+        <v>353</v>
+      </c>
+      <c r="U30">
+        <v>360</v>
+      </c>
+      <c r="W30">
+        <v>359</v>
+      </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>356</v>
       </c>
@@ -4711,8 +5080,20 @@
       <c r="O31">
         <v>360</v>
       </c>
+      <c r="Q31">
+        <v>383</v>
+      </c>
+      <c r="S31">
+        <v>353</v>
+      </c>
+      <c r="U31">
+        <v>357</v>
+      </c>
+      <c r="W31">
+        <v>360</v>
+      </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>358</v>
       </c>
@@ -4739,8 +5120,20 @@
       <c r="O32">
         <v>360</v>
       </c>
+      <c r="Q32">
+        <v>396</v>
+      </c>
+      <c r="S32">
+        <v>400</v>
+      </c>
+      <c r="U32">
+        <v>374</v>
+      </c>
+      <c r="W32">
+        <v>357</v>
+      </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>370</v>
       </c>
@@ -4767,8 +5160,20 @@
       <c r="O33">
         <v>354</v>
       </c>
+      <c r="Q33">
+        <v>376</v>
+      </c>
+      <c r="S33">
+        <v>355</v>
+      </c>
+      <c r="U33">
+        <v>366</v>
+      </c>
+      <c r="W33">
+        <v>354</v>
+      </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>364</v>
       </c>
@@ -4795,8 +5200,20 @@
       <c r="O34">
         <v>359</v>
       </c>
+      <c r="Q34">
+        <v>378</v>
+      </c>
+      <c r="S34">
+        <v>346</v>
+      </c>
+      <c r="U34">
+        <v>355</v>
+      </c>
+      <c r="W34">
+        <v>366</v>
+      </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>355</v>
       </c>
@@ -4823,8 +5240,20 @@
       <c r="O35">
         <v>357</v>
       </c>
+      <c r="Q35">
+        <v>373</v>
+      </c>
+      <c r="S35">
+        <v>356</v>
+      </c>
+      <c r="U35">
+        <v>361</v>
+      </c>
+      <c r="W35">
+        <v>356</v>
+      </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>358</v>
       </c>
@@ -4851,8 +5280,20 @@
       <c r="O36">
         <v>354</v>
       </c>
+      <c r="Q36">
+        <v>366</v>
+      </c>
+      <c r="S36">
+        <v>366</v>
+      </c>
+      <c r="U36">
+        <v>350</v>
+      </c>
+      <c r="W36">
+        <v>355</v>
+      </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>368</v>
       </c>
@@ -4879,8 +5320,20 @@
       <c r="O37">
         <v>358</v>
       </c>
+      <c r="Q37">
+        <v>367</v>
+      </c>
+      <c r="S37">
+        <v>361</v>
+      </c>
+      <c r="U37">
+        <v>367</v>
+      </c>
+      <c r="W37">
+        <v>359</v>
+      </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>394</v>
       </c>
@@ -4907,8 +5360,20 @@
       <c r="O38">
         <v>361</v>
       </c>
+      <c r="Q38">
+        <v>364</v>
+      </c>
+      <c r="S38">
+        <v>358</v>
+      </c>
+      <c r="U38">
+        <v>356</v>
+      </c>
+      <c r="W38">
+        <v>434</v>
+      </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>354</v>
       </c>
@@ -4935,8 +5400,20 @@
       <c r="O39">
         <v>356</v>
       </c>
+      <c r="Q39">
+        <v>358</v>
+      </c>
+      <c r="S39">
+        <v>355</v>
+      </c>
+      <c r="U39">
+        <v>361</v>
+      </c>
+      <c r="W39">
+        <v>352</v>
+      </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>355</v>
       </c>
@@ -4963,8 +5440,20 @@
       <c r="O40">
         <v>361</v>
       </c>
+      <c r="Q40">
+        <v>361</v>
+      </c>
+      <c r="S40">
+        <v>351</v>
+      </c>
+      <c r="U40">
+        <v>356</v>
+      </c>
+      <c r="W40">
+        <v>367</v>
+      </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>362</v>
       </c>
@@ -4991,8 +5480,20 @@
       <c r="O41">
         <v>363</v>
       </c>
+      <c r="Q41">
+        <v>382</v>
+      </c>
+      <c r="S41">
+        <v>354</v>
+      </c>
+      <c r="U41">
+        <v>362</v>
+      </c>
+      <c r="W41">
+        <v>356</v>
+      </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>358</v>
       </c>
@@ -5019,8 +5520,20 @@
       <c r="O42">
         <v>355</v>
       </c>
+      <c r="Q42">
+        <v>356</v>
+      </c>
+      <c r="S42">
+        <v>344</v>
+      </c>
+      <c r="U42">
+        <v>356</v>
+      </c>
+      <c r="W42">
+        <v>358</v>
+      </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>365</v>
       </c>
@@ -5047,8 +5560,20 @@
       <c r="O43">
         <v>356</v>
       </c>
+      <c r="Q43">
+        <v>363</v>
+      </c>
+      <c r="S43">
+        <v>351</v>
+      </c>
+      <c r="U43">
+        <v>352</v>
+      </c>
+      <c r="W43">
+        <v>357</v>
+      </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>359</v>
       </c>
@@ -5075,8 +5600,20 @@
       <c r="O44">
         <v>357</v>
       </c>
+      <c r="Q44">
+        <v>351</v>
+      </c>
+      <c r="S44">
+        <v>354</v>
+      </c>
+      <c r="U44">
+        <v>455</v>
+      </c>
+      <c r="W44">
+        <v>356</v>
+      </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>355</v>
       </c>
@@ -5103,8 +5640,20 @@
       <c r="O45">
         <v>360</v>
       </c>
+      <c r="Q45">
+        <v>361</v>
+      </c>
+      <c r="S45">
+        <v>358</v>
+      </c>
+      <c r="U45">
+        <v>358</v>
+      </c>
+      <c r="W45">
+        <v>360</v>
+      </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>361</v>
       </c>
@@ -5131,8 +5680,20 @@
       <c r="O46">
         <v>365</v>
       </c>
+      <c r="Q46">
+        <v>385</v>
+      </c>
+      <c r="S46">
+        <v>355</v>
+      </c>
+      <c r="U46">
+        <v>356</v>
+      </c>
+      <c r="W46">
+        <v>356</v>
+      </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>366</v>
       </c>
@@ -5159,8 +5720,20 @@
       <c r="O47">
         <v>363</v>
       </c>
+      <c r="Q47">
+        <v>357</v>
+      </c>
+      <c r="S47">
+        <v>353</v>
+      </c>
+      <c r="U47">
+        <v>359</v>
+      </c>
+      <c r="W47">
+        <v>380</v>
+      </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>360</v>
       </c>
@@ -5187,8 +5760,20 @@
       <c r="O48">
         <v>356</v>
       </c>
+      <c r="Q48">
+        <v>369</v>
+      </c>
+      <c r="S48">
+        <v>356</v>
+      </c>
+      <c r="U48">
+        <v>358</v>
+      </c>
+      <c r="W48">
+        <v>356</v>
+      </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>354</v>
       </c>
@@ -5215,8 +5800,20 @@
       <c r="O49">
         <v>362</v>
       </c>
+      <c r="Q49">
+        <v>357</v>
+      </c>
+      <c r="S49">
+        <v>353</v>
+      </c>
+      <c r="U49">
+        <v>361</v>
+      </c>
+      <c r="W49">
+        <v>359</v>
+      </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>354</v>
       </c>
@@ -5243,8 +5840,20 @@
       <c r="O50">
         <v>356</v>
       </c>
+      <c r="Q50">
+        <v>362</v>
+      </c>
+      <c r="S50">
+        <v>353</v>
+      </c>
+      <c r="U50">
+        <v>358</v>
+      </c>
+      <c r="W50">
+        <v>351</v>
+      </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>374</v>
       </c>
@@ -5271,8 +5880,20 @@
       <c r="O51">
         <v>370</v>
       </c>
+      <c r="Q51">
+        <v>359</v>
+      </c>
+      <c r="S51">
+        <v>354</v>
+      </c>
+      <c r="U51">
+        <v>364</v>
+      </c>
+      <c r="W51">
+        <v>359</v>
+      </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>356</v>
       </c>
@@ -5299,14 +5920,26 @@
       <c r="O52">
         <v>354</v>
       </c>
+      <c r="Q52">
+        <v>360</v>
+      </c>
+      <c r="S52">
+        <v>410</v>
+      </c>
+      <c r="U52">
+        <v>361</v>
+      </c>
+      <c r="W52">
+        <v>356</v>
+      </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>0</v>
       </c>
@@ -5327,8 +5960,18 @@
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
+      <c r="Q56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>1</v>
       </c>
@@ -5361,8 +6004,24 @@
         <v>4</v>
       </c>
       <c r="P57" s="2"/>
+      <c r="Q57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X57" s="2"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A58">
         <f>SUM(A3:A52)/50</f>
         <v>361.64</v>
@@ -5395,15 +6054,31 @@
         <f>SUM(O3:O52)/50</f>
         <v>366.62</v>
       </c>
+      <c r="Q58">
+        <f>SUM(Q3:Q52)/50</f>
+        <v>365.54</v>
+      </c>
+      <c r="S58">
+        <f>SUM(S3:S52)/50</f>
+        <v>360.7</v>
+      </c>
+      <c r="U58">
+        <f>SUM(U3:U52)/50</f>
+        <v>366.64</v>
+      </c>
+      <c r="W58">
+        <f>SUM(W3:W52)/50</f>
+        <v>370.82</v>
+      </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A62">
         <f>SUM(A58,C58,E58,G58)/4</f>
         <v>358.80499999999995</v>
@@ -5413,15 +6088,45 @@
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
+      <c r="Q62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.45">
       <c r="I63">
         <f>SUM(I58,K58,M58,O58)/4</f>
         <v>362.22</v>
       </c>
+      <c r="Q63">
+        <f>SUM(Q58,S58,U58,W58)/4</f>
+        <v>365.92500000000001</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="34">
+    <mergeCell ref="Q62:S62"/>
+    <mergeCell ref="Q56:X56"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="U57:V57"/>
+    <mergeCell ref="W57:X57"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="I62:K62"/>
     <mergeCell ref="A55:B55"/>
@@ -5435,16 +6140,6 @@
     <mergeCell ref="K57:L57"/>
     <mergeCell ref="M57:N57"/>
     <mergeCell ref="O57:P57"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/meetrapporten/working/Results.xlsx
+++ b/meetrapporten/working/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koend\Documents\GitHub\HU-TI-1617C-Vision\meetrapporten\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C493B5-0359-4F10-AA35-C55148F5A5C5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0D4021-90A9-4973-8D2A-AF30A0BD839A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17258" windowHeight="5663" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="12">
   <si>
     <t>Single Color Channel</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Gemiddelde bij Standaard</t>
+  </si>
+  <si>
+    <t>blablabla</t>
   </si>
 </sst>
 </file>
@@ -3843,10 +3846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X63"/>
+  <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S72" sqref="S72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6104,29 +6107,13 @@
         <v>365.92500000000001</v>
       </c>
     </row>
+    <row r="71" spans="19:19" x14ac:dyDescent="0.45">
+      <c r="S71" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="Q62:S62"/>
-    <mergeCell ref="Q56:X56"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="U57:V57"/>
-    <mergeCell ref="W57:X57"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A1:H1"/>
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="I62:K62"/>
     <mergeCell ref="A55:B55"/>
@@ -6140,6 +6127,27 @@
     <mergeCell ref="K57:L57"/>
     <mergeCell ref="M57:N57"/>
     <mergeCell ref="O57:P57"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Q62:S62"/>
+    <mergeCell ref="Q56:X56"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="U57:V57"/>
+    <mergeCell ref="W57:X57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/meetrapporten/working/Results.xlsx
+++ b/meetrapporten/working/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koend\Documents\GitHub\HU-TI-1617C-Vision\meetrapporten\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0D4021-90A9-4973-8D2A-AF30A0BD839A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCA9BCF-7680-4BD0-B1E4-8E7B714BA763}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17258" windowHeight="5663" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,13 +156,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Single Color</a:t>
+              <a:t>female</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Channel Graph</a:t>
+              <a:t> 1</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -198,26 +197,39 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Female-1</c:v>
+            <c:v>single color</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>Blad1!$A$3:$A$52</c:f>
@@ -377,9 +389,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-583B-4CDD-9A7E-5FB36C34FB11}"/>
+              <c16:uniqueId val="{00000000-ABB3-46FE-A904-DD10A3C691FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -387,180 +400,195 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Child-1</c:v>
+            <c:v>luminace</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$C$3:$C$52</c:f>
+              <c:f>Blad1!$I$3:$I$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>350</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>361</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>354</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="19">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>366</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>349</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="37">
                   <c:v>357</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>351</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>351</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>349</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>351</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="38">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>366</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="40">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>351</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>349</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>349</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-583B-4CDD-9A7E-5FB36C34FB11}"/>
+              <c16:uniqueId val="{00000001-ABB3-46FE-A904-DD10A3C691FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -568,170 +596,184 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Male-2</c:v>
+            <c:v>standaard</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$E$3:$E$52</c:f>
+              <c:f>Blad1!$Q$3:$Q$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>355</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>357</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>357</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>357</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>367</c:v>
+                  <c:v>358</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>358</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>369</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>371</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>353</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>350</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>356</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>357</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>355</c:v>
+                  <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>355</c:v>
+                  <c:v>358</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>353</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>353</c:v>
+                  <c:v>358</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>357</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>356</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>355</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>356</c:v>
+                  <c:v>379</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>354</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>352</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>361</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>353</c:v>
+                  <c:v>383</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>351</c:v>
+                  <c:v>396</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>353</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>357</c:v>
+                  <c:v>378</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>373</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>350</c:v>
+                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>353</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>353</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>352</c:v>
+                  <c:v>358</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>358</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>352</c:v>
+                  <c:v>382</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>354</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>354</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>356</c:v>
+                  <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>353</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>354</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>363</c:v>
+                  <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>368</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>353</c:v>
+                  <c:v>362</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>354</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>360</c:v>
@@ -739,190 +781,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-583B-4CDD-9A7E-5FB36C34FB11}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Male-3</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Blad1!$G$3:$G$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>371</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>389</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>366</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>376</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>363</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-583B-4CDD-9A7E-5FB36C34FB11}"/>
+              <c16:uniqueId val="{00000002-ABB3-46FE-A904-DD10A3C691FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -934,72 +796,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="1040157312"/>
-        <c:axId val="1032217888"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="526902472"/>
+        <c:axId val="526894928"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="1040157312"/>
+        <c:axId val="526902472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Test no.</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1036,7 +844,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1032217888"/>
+        <c:crossAx val="526894928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1044,9 +852,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1032217888"/>
+        <c:axId val="526894928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="300"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1064,66 +873,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> (ms)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1155,7 +904,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1040157312"/>
+        <c:crossAx val="526902472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1200,6 +949,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1248,6 +1004,7 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1269,8 +1026,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>child</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t>Luminance Graph</a:t>
+              <a:t> 1</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -1315,191 +1076,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Female-1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Blad1!$I$3:$I$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>375</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>382</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>354</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>375</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>351</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>371</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>366</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>366</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>419</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>363</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-80A9-4D74-B727-229222787775}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Child-1</c:v>
+            <c:v>single color</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1511,163 +1088,175 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$K$3:$K$52</c:f>
+              <c:f>Blad1!$C$3:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>348</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>352</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>357</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>352</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>369</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>351</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>354</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>388</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>354</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>362</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>352</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="35">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>366</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>369</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>364</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>356</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>359</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>368</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>359</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>359</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>364</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>353</c:v>
+                  <c:v>351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1675,199 +1264,15 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-80A9-4D74-B727-229222787775}"/>
+              <c16:uniqueId val="{00000000-ABB3-46FE-A904-DD10A3C691FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
-            <c:v>Male-2</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Blad1!$M$3:$M$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>354</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>378</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>382</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>366</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>369</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>407</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>352</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-80A9-4D74-B727-229222787775}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Male-3</c:v>
+            <c:v>luminace</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1879,163 +1284,175 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$O$3:$O$52</c:f>
+              <c:f>Blad1!$K$3:$K$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>382</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>374</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>376</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>374</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>376</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>384</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>384</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>381</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>374</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>380</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>374</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>378</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>380</c:v>
+                  <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>379</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>377</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>379</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>384</c:v>
+                  <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>376</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>384</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>373</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>357</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>362</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>356</c:v>
+                  <c:v>362</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>360</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="35">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>359</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>354</c:v>
-                </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="38">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>359</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>354</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>355</c:v>
-                </c:pt>
                 <c:pt idx="40">
-                  <c:v>356</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>360</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>365</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>363</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>356</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>362</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>356</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>370</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>354</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2043,7 +1460,203 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-80A9-4D74-B727-229222787775}"/>
+              <c16:uniqueId val="{00000001-ABB3-46FE-A904-DD10A3C691FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>standaard</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$S$3:$S$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>410</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ABB3-46FE-A904-DD10A3C691FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2055,72 +1668,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1040157312"/>
-        <c:axId val="1032217888"/>
+        <c:axId val="526902472"/>
+        <c:axId val="526894928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1040157312"/>
+        <c:axId val="526902472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Test no.</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2157,7 +1716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1032217888"/>
+        <c:crossAx val="526894928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2165,10 +1724,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1032217888"/>
+        <c:axId val="526894928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="330"/>
+          <c:min val="300"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2186,66 +1745,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> (ms)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2258,7 +1757,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2277,10 +1776,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1040157312"/>
+        <c:crossAx val="526902472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2324,6 +1822,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2358,13 +1857,3233 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>male 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>singel color</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$E$3:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>360</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ABB3-46FE-A904-DD10A3C691FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>luminace</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$M$3:$M$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>352</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ABB3-46FE-A904-DD10A3C691FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>standaard</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$U$3:$U$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>361</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ABB3-46FE-A904-DD10A3C691FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="526902472"/>
+        <c:axId val="526894928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="526902472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="526894928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="526894928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="526902472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>male 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>single color</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$G$3:$G$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>363</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ABB3-46FE-A904-DD10A3C691FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>luminace</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$O$3:$O$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>354</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ABB3-46FE-A904-DD10A3C691FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>standaard</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$W$3:$W$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>356</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ABB3-46FE-A904-DD10A3C691FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="526902472"/>
+        <c:axId val="526894928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="526902472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="526894928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="526894928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="526902472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>gemiddelde</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>single color</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>(Blad1!$A$58,Blad1!$C$58,Blad1!$E$58,Blad1!$G$58)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>361.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>353.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>356.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>363.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97B6-4EFB-97ED-4D48355D1944}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>luminace</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>(Blad1!$I$58,Blad1!$K$58,Blad1!$M$58,Blad1!$O$58)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>363.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>358.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>360.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>366.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-97B6-4EFB-97ED-4D48355D1944}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>standaard</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>(Blad1!$Q$58,Blad1!$S$58,Blad1!$U$58,Blad1!$W$58)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>365.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>360.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>366.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>370.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-97B6-4EFB-97ED-4D48355D1944}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:axId val="537942400"/>
+        <c:axId val="537944040"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>single color child 1</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:alpha val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:alpha val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="inEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1">
+                                <a:lumMod val="50000"/>
+                                <a:lumOff val="50000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Blad1!$C$58</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>353.16</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-97B6-4EFB-97ED-4D48355D1944}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:v>single color male 2</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3">
+                      <a:alpha val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:alpha val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="inEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1">
+                                <a:lumMod val="50000"/>
+                                <a:lumOff val="50000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Blad1!$E$58</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>356.56</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-97B6-4EFB-97ED-4D48355D1944}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:v>single color male 3</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:alpha val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:alpha val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="inEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1">
+                                <a:lumMod val="50000"/>
+                                <a:lumOff val="50000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Blad1!$G$58</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>363.86</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-97B6-4EFB-97ED-4D48355D1944}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:v>luminace child 1</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:alpha val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:alpha val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="inEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1">
+                                <a:lumMod val="50000"/>
+                                <a:lumOff val="50000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Blad1!$K$58</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>358.6</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-97B6-4EFB-97ED-4D48355D1944}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:v>luminace male 2</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:alpha val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:alpha val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="inEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1">
+                                <a:lumMod val="50000"/>
+                                <a:lumOff val="50000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Blad1!$M$58</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>360.36</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-97B6-4EFB-97ED-4D48355D1944}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:v>luminace male 3</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:alpha val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:alpha val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="inEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1">
+                                <a:lumMod val="50000"/>
+                                <a:lumOff val="50000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Blad1!$O$58</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>366.62</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-97B6-4EFB-97ED-4D48355D1944}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:v>standaard child 1</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:alpha val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:alpha val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="inEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1">
+                                <a:lumMod val="50000"/>
+                                <a:lumOff val="50000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Blad1!$S$58</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>360.7</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-97B6-4EFB-97ED-4D48355D1944}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="10"/>
+                <c:order val="10"/>
+                <c:tx>
+                  <c:v>standaard male 2</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:alpha val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:alpha val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="inEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1">
+                                <a:lumMod val="50000"/>
+                                <a:lumOff val="50000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Blad1!$U$58</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>366.64</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-97B6-4EFB-97ED-4D48355D1944}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="11"/>
+                <c:order val="11"/>
+                <c:tx>
+                  <c:v>standaard male 3</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:alpha val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:alpha val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="inEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1">
+                                <a:lumMod val="50000"/>
+                                <a:lumOff val="50000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Blad1!$W$58</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>370.82</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000B-97B6-4EFB-97ED-4D48355D1944}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="537942400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="537944040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="537944040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="537942400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -2399,6 +5118,117 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2439,7 +5269,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2547,11 +5377,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2562,11 +5387,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2598,9 +5418,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2955,7 +5772,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3063,11 +5880,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3078,11 +5890,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3114,9 +5921,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3470,27 +6274,1603 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>174133</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>16365</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>264800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>111935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>600853</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>39225</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>179757</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>170446</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Grafiek 11">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE568C2A-E8E5-400F-A82C-6064EF3616B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95BCA3EC-DA4A-46A1-8813-8827BF69B006}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3510,29 +7890,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>23610</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2222</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>607695</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>151447</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>87729</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>87730</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Grafiek 14">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C6ADF30-9C49-447A-86E1-18E9A51D2ED6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{342D8437-E754-4FE0-9DA9-1B3B31ACC766}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3541,6 +7919,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>273841</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>138327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>43295</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>162357</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E66AA1A7-9C71-4E7A-9DCE-761D94F89216}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>235296</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>77837</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>366515</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>177833</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FE5C1D8-4998-4B75-88A3-06FBC9F6293E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>264584</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>91167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>288663</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>173869</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C2CE851-2A35-4364-83EB-78FC6A6D5A3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3844,12 +8330,870 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride3.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S72" sqref="S72"/>
+    <sheetView tabSelected="1" topLeftCell="J18" zoomScale="33" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6114,6 +11458,27 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="Q62:S62"/>
+    <mergeCell ref="Q56:X56"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="U57:V57"/>
+    <mergeCell ref="W57:X57"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="I62:K62"/>
     <mergeCell ref="A55:B55"/>
@@ -6127,27 +11492,6 @@
     <mergeCell ref="K57:L57"/>
     <mergeCell ref="M57:N57"/>
     <mergeCell ref="O57:P57"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Q62:S62"/>
-    <mergeCell ref="Q56:X56"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="U57:V57"/>
-    <mergeCell ref="W57:X57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/meetrapporten/working/Results.xlsx
+++ b/meetrapporten/working/Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koend\Documents\GitHub\HU-TI-1617C-Vision\meetrapporten\working\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents-(D)\HBO-ICT\git\HBO-ICT\Jaar2\HU-TI-1617C-Vision\meetrapporten\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCA9BCF-7680-4BD0-B1E4-8E7B714BA763}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743E4F55-B6A5-42CC-9A9C-3D7085080A29}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17258" windowHeight="5663" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -96,8 +96,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -106,7 +109,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -124,7 +127,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -994,7 +997,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1860,7 +1863,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2721,7 +2724,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3582,7 +3585,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3732,6 +3735,26 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Blad1!$A$57,Blad1!$C$57,Blad1!$E$57,Blad1!$G$57)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Female-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Male-3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>(Blad1!$A$58,Blad1!$C$58,Blad1!$E$58,Blad1!$G$58)</c:f>
@@ -3836,6 +3859,26 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Blad1!$A$57,Blad1!$C$57,Blad1!$E$57,Blad1!$G$57)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Female-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Male-3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>(Blad1!$I$58,Blad1!$K$58,Blad1!$M$58,Blad1!$O$58)</c:f>
@@ -3941,6 +3984,26 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Blad1!$A$57,Blad1!$C$57,Blad1!$E$57,Blad1!$G$57)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Female-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Male-3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>(Blad1!$Q$58,Blad1!$S$58,Blad1!$U$58,Blad1!$W$58)</c:f>
@@ -4060,6 +4123,32 @@
                     </c:ext>
                   </c:extLst>
                 </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Blad1!$A$57,Blad1!$C$57,Blad1!$E$57,Blad1!$G$57)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>Female-1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Child-1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Male-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Male-3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -4144,7 +4233,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -4163,9 +4252,35 @@
                     </c:ext>
                   </c:extLst>
                 </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Blad1!$A$57,Blad1!$C$57,Blad1!$E$57,Blad1!$G$57)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>Female-1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Child-1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Male-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Male-3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Blad1!$E$58</c15:sqref>
@@ -4181,7 +4296,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-97B6-4EFB-97ED-4D48355D1944}"/>
                   </c:ext>
@@ -4247,7 +4362,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -4266,9 +4381,35 @@
                     </c:ext>
                   </c:extLst>
                 </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Blad1!$A$57,Blad1!$C$57,Blad1!$E$57,Blad1!$G$57)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>Female-1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Child-1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Male-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Male-3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Blad1!$G$58</c15:sqref>
@@ -4284,7 +4425,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-97B6-4EFB-97ED-4D48355D1944}"/>
                   </c:ext>
@@ -4350,7 +4491,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -4369,9 +4510,35 @@
                     </c:ext>
                   </c:extLst>
                 </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Blad1!$A$57,Blad1!$C$57,Blad1!$E$57,Blad1!$G$57)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>Female-1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Child-1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Male-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Male-3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Blad1!$K$58</c15:sqref>
@@ -4387,7 +4554,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-97B6-4EFB-97ED-4D48355D1944}"/>
                   </c:ext>
@@ -4454,7 +4621,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -4473,9 +4640,35 @@
                     </c:ext>
                   </c:extLst>
                 </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Blad1!$A$57,Blad1!$C$57,Blad1!$E$57,Blad1!$G$57)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>Female-1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Child-1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Male-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Male-3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Blad1!$M$58</c15:sqref>
@@ -4491,7 +4684,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-97B6-4EFB-97ED-4D48355D1944}"/>
                   </c:ext>
@@ -4558,7 +4751,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -4577,9 +4770,35 @@
                     </c:ext>
                   </c:extLst>
                 </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Blad1!$A$57,Blad1!$C$57,Blad1!$E$57,Blad1!$G$57)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>Female-1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Child-1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Male-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Male-3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Blad1!$O$58</c15:sqref>
@@ -4595,7 +4814,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-97B6-4EFB-97ED-4D48355D1944}"/>
                   </c:ext>
@@ -4662,7 +4881,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -4681,9 +4900,35 @@
                     </c:ext>
                   </c:extLst>
                 </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Blad1!$A$57,Blad1!$C$57,Blad1!$E$57,Blad1!$G$57)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>Female-1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Child-1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Male-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Male-3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Blad1!$S$58</c15:sqref>
@@ -4699,7 +4944,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-97B6-4EFB-97ED-4D48355D1944}"/>
                   </c:ext>
@@ -4766,7 +5011,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -4785,9 +5030,35 @@
                     </c:ext>
                   </c:extLst>
                 </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Blad1!$A$57,Blad1!$C$57,Blad1!$E$57,Blad1!$G$57)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>Female-1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Child-1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Male-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Male-3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Blad1!$U$58</c15:sqref>
@@ -4803,7 +5074,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-97B6-4EFB-97ED-4D48355D1944}"/>
                   </c:ext>
@@ -4870,7 +5141,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -4889,9 +5160,35 @@
                     </c:ext>
                   </c:extLst>
                 </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(Blad1!$A$57,Blad1!$C$57,Blad1!$E$57,Blad1!$G$57)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>Female-1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Child-1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Male-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Male-3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Blad1!$W$58</c15:sqref>
@@ -4907,7 +5204,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-97B6-4EFB-97ED-4D48355D1944}"/>
                   </c:ext>
@@ -4922,12 +5219,45 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="537944040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -4940,7 +5270,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4969,9 +5299,36 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="537942400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -8036,7 +8393,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -9192,99 +9549,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J18" zoomScale="33" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView tabSelected="1" topLeftCell="H69" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
+      <c r="N2" s="3"/>
+      <c r="O2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2" t="s">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2" t="s">
+      <c r="R2" s="3"/>
+      <c r="S2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2" t="s">
+      <c r="T2" s="3"/>
+      <c r="U2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2" t="s">
+      <c r="V2" s="3"/>
+      <c r="W2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="2"/>
+      <c r="X2" s="3"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>356</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="1">
         <v>350</v>
       </c>
@@ -9320,11 +9677,11 @@
         <v>431</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>357</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="1">
         <v>361</v>
       </c>
@@ -9360,11 +9717,11 @@
         <v>376</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>370</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="1">
         <v>350</v>
       </c>
@@ -9400,11 +9757,11 @@
         <v>378</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>368</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="1">
         <v>348</v>
       </c>
@@ -9440,11 +9797,11 @@
         <v>377</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>364</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="1">
         <v>354</v>
       </c>
@@ -9480,11 +9837,11 @@
         <v>374</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>369</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="1">
         <v>348</v>
       </c>
@@ -9520,11 +9877,11 @@
         <v>382</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>373</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="1">
         <v>352</v>
       </c>
@@ -9560,11 +9917,11 @@
         <v>385</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>365</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="1">
         <v>366</v>
       </c>
@@ -9600,11 +9957,11 @@
         <v>401</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>357</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="1">
         <v>352</v>
       </c>
@@ -9640,11 +9997,11 @@
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>363</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="1">
         <v>349</v>
       </c>
@@ -9680,11 +10037,11 @@
         <v>377</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>361</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="1">
         <v>352</v>
       </c>
@@ -9720,11 +10077,11 @@
         <v>378</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>358</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="1">
         <v>350</v>
       </c>
@@ -9760,11 +10117,11 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>363</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="1">
         <v>353</v>
       </c>
@@ -9800,11 +10157,11 @@
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>362</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="1">
         <v>350</v>
       </c>
@@ -9840,11 +10197,11 @@
         <v>385</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>367</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="1">
         <v>361</v>
       </c>
@@ -9880,11 +10237,11 @@
         <v>375</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>358</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="1">
         <v>352</v>
       </c>
@@ -9920,11 +10277,11 @@
         <v>377</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>357</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="2"/>
       <c r="C19" s="1">
         <v>357</v>
       </c>
@@ -9960,11 +10317,11 @@
         <v>382</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A20" s="1">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>362</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="1">
         <v>361</v>
       </c>
@@ -10000,11 +10357,11 @@
         <v>379</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A21" s="1">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>357</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="1">
         <v>352</v>
       </c>
@@ -10040,11 +10397,11 @@
         <v>390</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A22" s="1">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>358</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="1">
         <v>348</v>
       </c>
@@ -10080,11 +10437,11 @@
         <v>367</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A23" s="1">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>362</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="1">
         <v>353</v>
       </c>
@@ -10120,11 +10477,11 @@
         <v>373</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A24" s="1">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>357</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="1">
         <v>351</v>
       </c>
@@ -10160,11 +10517,11 @@
         <v>387</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A25" s="1">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>358</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="1">
         <v>353</v>
       </c>
@@ -10200,11 +10557,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A26" s="1">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>362</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="2"/>
       <c r="C26" s="1">
         <v>353</v>
       </c>
@@ -10240,11 +10597,11 @@
         <v>359</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A27" s="1">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>357</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="2"/>
       <c r="C27" s="1">
         <v>351</v>
       </c>
@@ -10280,11 +10637,11 @@
         <v>372</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A28" s="1">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>361</v>
       </c>
-      <c r="B28" s="1"/>
+      <c r="B28" s="2"/>
       <c r="C28" s="1">
         <v>350</v>
       </c>
@@ -10320,11 +10677,11 @@
         <v>360</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A29" s="1">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>362</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="2"/>
       <c r="C29" s="1">
         <v>349</v>
       </c>
@@ -10360,11 +10717,11 @@
         <v>359</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A30" s="1">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>362</v>
       </c>
-      <c r="B30" s="1"/>
+      <c r="B30" s="2"/>
       <c r="C30" s="1">
         <v>344</v>
       </c>
@@ -10400,11 +10757,11 @@
         <v>359</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A31" s="1">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>356</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="2"/>
       <c r="C31" s="1">
         <v>362</v>
       </c>
@@ -10440,11 +10797,11 @@
         <v>360</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A32" s="1">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
         <v>358</v>
       </c>
-      <c r="B32" s="1"/>
+      <c r="B32" s="2"/>
       <c r="C32" s="1">
         <v>353</v>
       </c>
@@ -10480,11 +10837,11 @@
         <v>357</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A33" s="1">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>370</v>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" s="2"/>
       <c r="C33" s="1">
         <v>353</v>
       </c>
@@ -10520,11 +10877,11 @@
         <v>354</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A34" s="1">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
         <v>364</v>
       </c>
-      <c r="B34" s="1"/>
+      <c r="B34" s="2"/>
       <c r="C34" s="1">
         <v>351</v>
       </c>
@@ -10560,11 +10917,11 @@
         <v>366</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A35" s="1">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
         <v>355</v>
       </c>
-      <c r="B35" s="1"/>
+      <c r="B35" s="2"/>
       <c r="C35" s="1">
         <v>350</v>
       </c>
@@ -10600,11 +10957,11 @@
         <v>356</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A36" s="1">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>358</v>
       </c>
-      <c r="B36" s="1"/>
+      <c r="B36" s="2"/>
       <c r="C36" s="1">
         <v>353</v>
       </c>
@@ -10640,11 +10997,11 @@
         <v>355</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A37" s="1">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
         <v>368</v>
       </c>
-      <c r="B37" s="1"/>
+      <c r="B37" s="2"/>
       <c r="C37" s="1">
         <v>352</v>
       </c>
@@ -10680,11 +11037,11 @@
         <v>359</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A38" s="1">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>394</v>
       </c>
-      <c r="B38" s="1"/>
+      <c r="B38" s="2"/>
       <c r="C38" s="1">
         <v>366</v>
       </c>
@@ -10720,11 +11077,11 @@
         <v>434</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A39" s="1">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>354</v>
       </c>
-      <c r="B39" s="1"/>
+      <c r="B39" s="2"/>
       <c r="C39" s="1">
         <v>363</v>
       </c>
@@ -10760,7 +11117,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>355</v>
       </c>
@@ -10800,7 +11157,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>362</v>
       </c>
@@ -10840,7 +11197,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>358</v>
       </c>
@@ -10880,7 +11237,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>365</v>
       </c>
@@ -10920,7 +11277,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>359</v>
       </c>
@@ -10960,7 +11317,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>355</v>
       </c>
@@ -11000,7 +11357,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>361</v>
       </c>
@@ -11040,7 +11397,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>366</v>
       </c>
@@ -11080,7 +11437,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>360</v>
       </c>
@@ -11120,7 +11477,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>354</v>
       </c>
@@ -11160,7 +11517,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>354</v>
       </c>
@@ -11200,7 +11557,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>374</v>
       </c>
@@ -11240,7 +11597,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>356</v>
       </c>
@@ -11280,95 +11637,95 @@
         <v>356</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="2"/>
+      <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A56" s="2" t="s">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2" t="s">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2" t="s">
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-      <c r="U56" s="2"/>
-      <c r="V56" s="2"/>
-      <c r="W56" s="2"/>
-      <c r="X56" s="2"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2" t="s">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2" t="s">
+      <c r="D57" s="3"/>
+      <c r="E57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2" t="s">
+      <c r="F57" s="3"/>
+      <c r="G57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2" t="s">
+      <c r="H57" s="3"/>
+      <c r="I57" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="3"/>
+      <c r="K57" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2" t="s">
+      <c r="L57" s="3"/>
+      <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2" t="s">
+      <c r="N57" s="3"/>
+      <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2" t="s">
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="R57" s="2"/>
-      <c r="S57" s="2" t="s">
+      <c r="R57" s="3"/>
+      <c r="S57" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="T57" s="2"/>
-      <c r="U57" s="2" t="s">
+      <c r="T57" s="3"/>
+      <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V57" s="2"/>
-      <c r="W57" s="2" t="s">
+      <c r="V57" s="3"/>
+      <c r="W57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X57" s="2"/>
+      <c r="X57" s="3"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58">
         <f>SUM(A3:A52)/50</f>
         <v>361.64</v>
@@ -11418,30 +11775,30 @@
         <v>370.82</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A61" s="2" t="s">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62">
         <f>SUM(A58,C58,E58,G58)/4</f>
         <v>358.80499999999995</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="Q62" s="2" t="s">
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="Q62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R62" s="2"/>
-      <c r="S62" s="2"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="I63">
         <f>SUM(I58,K58,M58,O58)/4</f>
         <v>362.22</v>
@@ -11451,7 +11808,7 @@
         <v>365.92500000000001</v>
       </c>
     </row>
-    <row r="71" spans="19:19" x14ac:dyDescent="0.45">
+    <row r="71" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S71" t="s">
         <v>11</v>
       </c>
